--- a/TestCase/TestCaseTable/U201517092-TestCase.xlsx
+++ b/TestCase/TestCaseTable/U201517092-TestCase.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150">
   <si>
     <r>
       <rPr>
@@ -925,7 +925,10 @@
     <t>rightpath</t>
   </si>
   <si>
-    <t>比较重要</t>
+    <t>高</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
   <si>
     <t>C:\Users\f\IdeaProjects\WORDCOUNT\count1.txt</t>
@@ -941,6 +944,9 @@
   </si>
   <si>
     <t>wrongpath1</t>
+  </si>
+  <si>
+    <t>中</t>
   </si>
   <si>
     <t>C:\Users\f\IdeaProjects\count1.txt</t>
@@ -1004,9 +1010,6 @@
   </si>
   <si>
     <t>count1</t>
-  </si>
-  <si>
-    <t>重要</t>
   </si>
   <si>
     <t>let 1 s 1</t>
@@ -1845,12 +1848,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yy\.mm\.dd"/>
     <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1918,6 +1921,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1926,6 +1967,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1940,29 +1988,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1970,13 +1996,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1990,11 +2009,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2023,16 +2050,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2040,22 +2059,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2120,19 +2123,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2150,31 +2171,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2186,13 +2201,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2210,37 +2255,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2252,55 +2303,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2517,26 +2520,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2556,6 +2550,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2571,21 +2574,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2593,6 +2581,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2608,148 +2611,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4306,8 +4309,8 @@
   </sheetPr>
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6666666666667" defaultRowHeight="15.6"/>
@@ -4512,25 +4515,27 @@
       </c>
       <c r="E2" s="12"/>
       <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="G2" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H2" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="12"/>
       <c r="J2" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" ht="41.4" spans="1:14">
@@ -4541,32 +4546,34 @@
         <v>59</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="G3" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H3" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L3" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" ht="41.4" spans="1:14">
@@ -4577,32 +4584,34 @@
         <v>59</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="G4" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H4" s="12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="41.4" spans="1:14">
@@ -4613,32 +4622,34 @@
         <v>59</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H5" s="12" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L5" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -4649,29 +4660,31 @@
         <v>59</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>61</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H6" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L6" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N6" s="18"/>
     </row>
@@ -4683,29 +4696,31 @@
         <v>59</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H7" s="12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N7" s="18"/>
     </row>
@@ -4714,32 +4729,34 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H8" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L8" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="N8" s="18"/>
     </row>
@@ -4748,32 +4765,34 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H9" s="12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L9" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N9" s="18"/>
     </row>
@@ -4782,32 +4801,34 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="G10" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H10" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L10" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N10" s="18"/>
     </row>
@@ -4816,32 +4837,34 @@
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H11" s="12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L11" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N11" s="18"/>
     </row>
@@ -4850,32 +4873,34 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H12" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N12" s="18"/>
     </row>
@@ -4884,32 +4909,34 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
+      <c r="G13" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H13" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L13" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N13" s="18"/>
     </row>
@@ -4918,32 +4945,34 @@
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H14" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="N14" s="18"/>
     </row>
@@ -4952,32 +4981,34 @@
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H15" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N15" s="18"/>
     </row>
@@ -4986,32 +5017,34 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H16" s="12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N16" s="18"/>
     </row>
@@ -5020,32 +5053,34 @@
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H17" s="12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I17" s="12"/>
       <c r="J17" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L17" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M17" s="14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N17" s="18"/>
     </row>
@@ -5054,32 +5089,34 @@
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H18" s="12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I18" s="12"/>
       <c r="J18" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L18" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N18" s="18"/>
     </row>
@@ -5088,32 +5125,34 @@
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
+      <c r="G19" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H19" s="12" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N19" s="18"/>
     </row>
@@ -5122,32 +5161,34 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N20" s="18"/>
     </row>
@@ -5156,32 +5197,34 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
+      <c r="G21" s="14" t="s">
+        <v>62</v>
+      </c>
       <c r="H21" s="12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I21" s="12"/>
       <c r="J21" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L21" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M21" s="14" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N21" s="18"/>
     </row>
@@ -42909,7 +42952,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3"/>
@@ -42919,7 +42962,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C2" s="3"/>
     </row>
@@ -42928,7 +42971,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -42937,7 +42980,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -42946,7 +42989,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -42955,7 +42998,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -42964,7 +43007,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -42973,7 +43016,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -42982,7 +43025,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -42991,7 +43034,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/TestCase/TestCaseTable/U201517092-TestCase.xlsx
+++ b/TestCase/TestCaseTable/U201517092-TestCase.xlsx
@@ -940,7 +940,7 @@
     <t>OK</t>
   </si>
   <si>
-    <t>正确绝对路径的测试</t>
+    <t>（黑盒设计）正确绝对路径的测试</t>
   </si>
   <si>
     <t>wrongpath1</t>
@@ -955,7 +955,7 @@
     <t>throw FileNotFoundException</t>
   </si>
   <si>
-    <t>错误的绝对路径测试</t>
+    <t>（黑盒设计）错误的绝对路径测试</t>
   </si>
   <si>
     <t>POK</t>
@@ -967,7 +967,7 @@
     <t>count0.txt</t>
   </si>
   <si>
-    <t>错误的相对路径测试</t>
+    <t>（黑盒设计）错误的相对路径测试</t>
   </si>
   <si>
     <t>NG</t>
@@ -979,7 +979,7 @@
     <t>empyt</t>
   </si>
   <si>
-    <t>空路径测试</t>
+    <t>（黑盒设计）空路径测试</t>
   </si>
   <si>
     <t>NT</t>
@@ -991,7 +991,7 @@
     <t>count1.txt</t>
   </si>
   <si>
-    <t>正确的相对路径测试</t>
+    <t>（黑盒设计）正确的相对路径测试</t>
   </si>
   <si>
     <t>emptyfile</t>
@@ -1003,7 +1003,7 @@
     <t>empty</t>
   </si>
   <si>
-    <t>空读取文件测试</t>
+    <t>（黑盒设计）空读取文件测试</t>
   </si>
   <si>
     <t>processString</t>
@@ -1015,7 +1015,7 @@
     <t>let 1 s 1</t>
   </si>
   <si>
-    <t>测试带了缩写'的算两个单词</t>
+    <t>（黑盒设计）测试带了缩写'的算两个单词</t>
   </si>
   <si>
     <t>count2</t>
@@ -1027,7 +1027,7 @@
     <t>night 1</t>
   </si>
   <si>
-    <t>测试单词后有-</t>
+    <t>（黑盒设计）测试单词后有-</t>
   </si>
   <si>
     <t>count3</t>
@@ -1039,7 +1039,7 @@
     <t>i 1</t>
   </si>
   <si>
-    <t>测试带了双引号的单词</t>
+    <t>（黑盒设计）测试带了双引号的单词</t>
   </si>
   <si>
     <t>count4</t>
@@ -1052,12 +1052,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试用</t>
+      <t>（黑盒设计）测试用</t>
     </r>
     <r>
       <rPr>
@@ -1086,13 +1081,13 @@
     <t>see 1 box 1 d 1 c 1</t>
   </si>
   <si>
-    <t>测试带了数字、扩号、下划线的单词计数</t>
+    <t>（黑盒设计）测试带了数字、扩号、下划线的单词计数</t>
   </si>
   <si>
     <t>count6</t>
   </si>
   <si>
-    <t>空的测试用例</t>
+    <t>（黑盒设计）空的测试用例</t>
   </si>
   <si>
     <t>count7</t>
@@ -1105,12 +1100,7 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试字母间有</t>
+      <t>（黑盒设计）测试字母间有</t>
     </r>
     <r>
       <rPr>
@@ -1136,7 +1126,7 @@
     <t>!@#!~^&amp;*()%+&gt;&lt;</t>
   </si>
   <si>
-    <t>测试一些常见字符</t>
+    <t>（黑盒设计）测试一些常见字符</t>
   </si>
   <si>
     <t>count9</t>
@@ -1145,22 +1135,7 @@
     <t xml:space="preserve"> -table</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>测试单词前有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
+    <t>（黑盒设计）</t>
   </si>
   <si>
     <t>count10</t>
@@ -1172,7 +1147,7 @@
     <t>table 3 chair 2 sofa 1</t>
   </si>
   <si>
-    <t>测试计算多个相同单词</t>
+    <t>（黑盒设计）测试计算多个相同单词</t>
   </si>
   <si>
     <t>count11</t>
@@ -1186,7 +1161,7 @@
     <t>abc 1 def 1 ghi 1</t>
   </si>
   <si>
-    <t>测试用空格、tab、换行符分隔的单词</t>
+    <t>（黑盒设计）测试用空格、tab、换行符分隔的单词</t>
   </si>
   <si>
     <t>count12</t>
@@ -1198,7 +1173,7 @@
     <t xml:space="preserve">abc 1 </t>
   </si>
   <si>
-    <t>测试单词前后有数字</t>
+    <t>（黑盒设计）测试单词前后有数字</t>
   </si>
   <si>
     <t>count13</t>
@@ -1210,7 +1185,7 @@
     <t>gba 8</t>
   </si>
   <si>
-    <t>测试大小写不敏感</t>
+    <t>（黑盒设计）测试大小写不敏感</t>
   </si>
   <si>
     <t>count14</t>
@@ -1222,7 +1197,7 @@
     <t>skdf  1 b-g 1 vmoljkn 1 sd 1 safd 1 j 1</t>
   </si>
   <si>
-    <t>随机测试</t>
+    <t>（黑盒设计）随机测试</t>
   </si>
   <si>
     <r>
@@ -1848,12 +1823,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="yy\.mm\.dd"/>
+    <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yy\.mm\.dd"/>
-    <numFmt numFmtId="177" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -1921,44 +1896,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1972,6 +1909,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1979,16 +1939,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2009,17 +1985,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2034,8 +2023,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2043,29 +2040,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2123,7 +2098,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2135,25 +2194,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2177,13 +2230,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2195,115 +2278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2511,6 +2486,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -2531,21 +2521,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2585,6 +2560,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2599,160 +2583,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="33" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4309,8 +4284,8 @@
   </sheetPr>
   <dimension ref="A1:EJ12389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="87" zoomScaleNormal="87" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6666666666667" defaultRowHeight="15.6"/>
@@ -4652,7 +4627,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" ht="28.8" spans="1:14">
       <c r="A6" s="12">
         <v>5</v>
       </c>
@@ -4688,7 +4663,7 @@
       </c>
       <c r="N6" s="18"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" ht="28.8" spans="1:14">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -4760,7 +4735,7 @@
       </c>
       <c r="N8" s="18"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" ht="28.8" spans="1:14">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -4796,7 +4771,7 @@
       </c>
       <c r="N9" s="18"/>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" ht="28.8" spans="1:14">
       <c r="A10" s="12">
         <v>9</v>
       </c>
@@ -4832,7 +4807,7 @@
       </c>
       <c r="N10" s="18"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" ht="28.8" spans="1:14">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -4940,7 +4915,7 @@
       </c>
       <c r="N13" s="18"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" ht="28.8" spans="1:14">
       <c r="A14" s="12">
         <v>13</v>
       </c>
@@ -4976,7 +4951,7 @@
       </c>
       <c r="N14" s="18"/>
     </row>
-    <row r="15" ht="27.6" spans="1:14">
+    <row r="15" ht="28.8" spans="1:14">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -5048,7 +5023,7 @@
       </c>
       <c r="N16" s="18"/>
     </row>
-    <row r="17" ht="27.6" spans="1:14">
+    <row r="17" ht="28.8" spans="1:14">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -5120,7 +5095,7 @@
       </c>
       <c r="N18" s="18"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" ht="28.8" spans="1:14">
       <c r="A19" s="12">
         <v>18</v>
       </c>
